--- a/WeeklyCitiCreditCardTransactions_GatherDaily/Data/Config.xlsx
+++ b/WeeklyCitiCreditCardTransactions_GatherDaily/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8feb79f201121421/UiPATH/WeeklyCreditCardTransactions_GatherDaily/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8feb79f201121421/UiPATH/WeeklyCitiCreditCardTransactions_GatherDaily/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="73" documentId="11_6EB4CAF5627EDD8D9FCB0C46929BBE1A46A4B9B1" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{AC2C016C-3544-4304-83DA-6A0ABC8949BB}"/>
+  <xr:revisionPtr revIDLastSave="82" documentId="11_6EB4CAF5627EDD8D9FCB0C46929BBE1A46A4B9B1" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{4B4B9A26-80DA-4221-AF55-20F79EB1E959}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="57">
   <si>
     <t>Name</t>
   </si>
@@ -195,6 +195,12 @@
   </si>
   <si>
     <t>CostcoCiti_Transactions</t>
+  </si>
+  <si>
+    <t>https://online.citi.com/US/ag/mrc/dashboard</t>
+  </si>
+  <si>
+    <t>Citi_Home_URL</t>
   </si>
 </sst>
 </file>
@@ -252,7 +258,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -571,7 +577,7 @@
   <dimension ref="A1:Z995"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -652,7 +658,12 @@
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="4"/>
+      <c r="A6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
